--- a/文档/交付文档模板/07.项目周报.xlsx
+++ b/文档/交付文档模板/07.项目周报.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\neuedu\99华南区VSS\01.华南区资源库\06.实训项目\FY17华南区实训项目管理流程\02.实施项目过程文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="13935" windowHeight="5175" tabRatio="628"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="13935" windowHeight="5175" tabRatio="628" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="32" r:id="rId1"/>
@@ -23,12 +18,11 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">风险跟踪!$B$2:$M$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">问题跟踪!$B$2:$M$2</definedName>
-    <definedName name="Activity">'[3]Data Definition'!#REF!</definedName>
+    <definedName name="Activity">'[1]Data Definition'!#REF!</definedName>
     <definedName name="CMRight">[2]信息定义!$L$6:$L$10</definedName>
     <definedName name="endcol">#REF!</definedName>
     <definedName name="endline">#REF!</definedName>
@@ -39,7 +33,7 @@
     <definedName name="StatOKNG">[2]信息定义!$J$6:$J$11</definedName>
     <definedName name="StatOpenClose">[2]信息定义!$K$6:$K$10</definedName>
     <definedName name="StatYesNo">[2]信息定义!$I$6:$I$10</definedName>
-    <definedName name="TestPhase">'[3]Data Definition'!#REF!</definedName>
+    <definedName name="TestPhase">'[1]Data Definition'!#REF!</definedName>
     <definedName name="产品概述">#REF!</definedName>
     <definedName name="产品竞争分析">#REF!</definedName>
     <definedName name="产品名称与版本">#REF!</definedName>
@@ -96,13 +90,13 @@
     <definedName name="信息内容">#REF!</definedName>
     <definedName name="需求开发工具">#REF!</definedName>
     <definedName name="需求信息">#REF!</definedName>
-    <definedName name="一级标题">[4]正文!$B$1</definedName>
+    <definedName name="一级标题">[3]正文!$B$1</definedName>
     <definedName name="约束条件">#REF!</definedName>
     <definedName name="运行环境">#REF!</definedName>
     <definedName name="质量保证计划">#REF!</definedName>
     <definedName name="子活动类型名">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -115,65 +109,70 @@
     <author>fengchi</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>项目实际开始日期</t>
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>项目当前阶段延期</t>
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="1" shapeId="0">
+    <comment ref="B6" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>项目计划中定义的所有里程碑</t>
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="2" shapeId="0">
+    <comment ref="D6" authorId="2">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>里程碑内的各关键点也需要列入进行跟踪。</t>
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="1" shapeId="0">
+    <comment ref="F6" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>第</t>
@@ -192,19 +191,21 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>次变更后的计划结束日期</t>
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="1" shapeId="0">
+    <comment ref="G6" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>第</t>
@@ -223,19 +224,21 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>次变更后的计划结束日期</t>
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="1" shapeId="0">
+    <comment ref="H6" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>第</t>
@@ -254,19 +257,21 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>次变更后的计划结束日期</t>
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="3" shapeId="0">
+    <comment ref="B13" authorId="3">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>项目负责人综合判断当前的状况。
@@ -275,39 +280,42 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="1" shapeId="0">
+    <comment ref="B15" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>记录本周的缺陷数据状况，按照活动分类填写。</t>
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="0" shapeId="0">
+    <comment ref="C15" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>当前发现的总缺陷数</t>
         </r>
       </text>
     </comment>
-    <comment ref="D15" authorId="1" shapeId="0">
+    <comment ref="D15" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>发现软件缺陷的活动。
@@ -320,91 +328,98 @@
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="1" shapeId="0">
+    <comment ref="E15" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>累计到上周为止未关闭的缺陷数目</t>
         </r>
       </text>
     </comment>
-    <comment ref="F15" authorId="1" shapeId="0">
+    <comment ref="F15" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>本周内新发现的缺陷数目</t>
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="1" shapeId="0">
+    <comment ref="G15" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>本周内修改完的缺陷数目</t>
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="1" shapeId="0">
+    <comment ref="H15" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>到本周为止没有关闭的缺陷数目。</t>
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0">
+    <comment ref="C17" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Base遗留的总Bug数</t>
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>截止目前发现的二次Bug数</t>
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="1" shapeId="0">
+    <comment ref="B22" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">参照以下内容填写：
@@ -424,6 +439,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>、项目总体延期状况分析。</t>
@@ -443,6 +459,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">、式样书发送计划和实际。
@@ -462,6 +479,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">、模块开发计划和实际（要求描述具体状况，对于编码活动中要求写出估计的有效代码行和当前实际完成的代码行。）
@@ -481,19 +499,21 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>、版本提交情况（要求填写具体的提交物名称，和版本号。）</t>
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="1" shapeId="0">
+    <comment ref="B23" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">参照以下内容填写：
@@ -513,6 +533,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>、如果项目组成员有变动</t>
@@ -531,6 +552,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>增加</t>
@@ -549,6 +571,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>减少</t>
@@ -567,6 +590,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>更换</t>
@@ -585,6 +609,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">，要求填写变动日期、变动人员姓名、变动去向。
@@ -604,6 +629,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>、工作状态、效率（正常</t>
@@ -622,6 +648,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>高</t>
@@ -640,6 +667,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>低）
@@ -647,13 +675,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="1" shapeId="0">
+    <comment ref="B24" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>参照以下内容填写：
@@ -662,13 +691,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="1" shapeId="0">
+    <comment ref="B25" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>包括事业部、客户以及其他组织的支持
@@ -677,13 +707,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="1" shapeId="0">
+    <comment ref="B26" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>项目进行中发生的重要事件
@@ -691,13 +722,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="1" shapeId="0">
+    <comment ref="B28" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1、写出一周内完成的任务，如果一个任务超过一周，则在这里拆分出本周内需要完成的子任务。
@@ -705,13 +737,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="1" shapeId="0">
+    <comment ref="D28" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>每项任务的计划总工作量</t>
@@ -728,26 +761,28 @@
     <author>Li Chunlin</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>描述识别出的风险的内容及影响。</t>
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>对策执行情况以及风险状况描述。
@@ -765,26 +800,28 @@
     <author>lihe</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>问题来源包括项目例会记录,QA周报/工作表,驻在周报,测试周报,原因分析报告,质量会议记录,项目策划评审记录,里程碑评审记录,项目总结评审记录,客户指摘,其它等</t>
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>对策执行情况以及问题状况描述。（保留每次追踪的描述信息，以履历形式倒序插入）</t>
@@ -796,7 +833,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="115">
   <si>
     <t>项目编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -893,6 +930,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>次变更</t>
@@ -914,6 +952,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>次变更</t>
@@ -951,6 +990,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>次变更</t>
@@ -1312,21 +1352,33 @@
     <t>文档编号：D0000-PPC-项目编号-PWR-年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>餐饮后台管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李安妮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何青杏、丁苗、陈思渌、彭子圆、许浩林、李安妮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="mmm"/>
-    <numFmt numFmtId="183" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="184" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="185" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="222" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="228" formatCode="yy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="mmm"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="182" formatCode="yy/m/d;@"/>
   </numFmts>
-  <fonts count="68">
+  <fonts count="69">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1397,6 +1449,7 @@
     <font>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1409,12 +1462,14 @@
     <font>
       <sz val="10.5"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10.5"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1428,6 +1483,7 @@
       <sz val="10"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1480,17 +1536,20 @@
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1502,6 +1561,7 @@
     <font>
       <sz val="12"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1513,12 +1573,14 @@
       <sz val="11"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1530,6 +1592,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1537,6 +1600,7 @@
       <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1544,6 +1608,7 @@
       <sz val="15"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1551,6 +1616,7 @@
       <sz val="13"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1558,18 +1624,21 @@
       <sz val="11"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1577,6 +1646,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1584,6 +1654,7 @@
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1591,6 +1662,7 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1598,24 +1670,28 @@
       <sz val="11"/>
       <color indexed="23"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1623,12 +1699,14 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1647,11 +1725,13 @@
       <b/>
       <sz val="15"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="22"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1684,6 +1764,7 @@
     <font>
       <sz val="36"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1723,6 +1804,12 @@
       <sz val="10.5"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="13">
@@ -2276,7 +2363,7 @@
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="15" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
@@ -2333,7 +2420,7 @@
     <xf numFmtId="0" fontId="41" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -2365,8 +2452,8 @@
     <xf numFmtId="0" fontId="50" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -2454,7 +2541,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="228" fontId="31" fillId="0" borderId="12" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="31" fillId="0" borderId="12" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2469,7 +2556,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="228" fontId="31" fillId="10" borderId="12" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="31" fillId="10" borderId="12" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2560,7 +2647,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="228" fontId="27" fillId="0" borderId="12" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="27" fillId="0" borderId="12" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2588,9 +2675,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2602,9 +2686,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2621,7 +2702,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="222" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2822,14 +2903,35 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="12" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2837,17 +2939,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2885,41 +2987,26 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -23891,7 +23978,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2638425" y="0"/>
+          <a:off x="2633382" y="0"/>
           <a:ext cx="295275" cy="0"/>
           <a:chOff x="419" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -23998,7 +24085,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3076575" y="0"/>
+          <a:off x="3071532" y="0"/>
           <a:ext cx="161925" cy="0"/>
           <a:chOff x="116" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -24115,7 +24202,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3771900" y="0"/>
+          <a:off x="3765176" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="94" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -24222,7 +24309,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2638425" y="0"/>
+          <a:off x="2633382" y="0"/>
           <a:ext cx="295275" cy="0"/>
           <a:chOff x="419" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -24329,7 +24416,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3076575" y="0"/>
+          <a:off x="3071532" y="0"/>
           <a:ext cx="161925" cy="0"/>
           <a:chOff x="508" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -24436,7 +24523,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3771900" y="0"/>
+          <a:off x="3765176" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="331" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -24543,7 +24630,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2638425" y="0"/>
+          <a:off x="2633382" y="0"/>
           <a:ext cx="295275" cy="0"/>
           <a:chOff x="419" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -24650,7 +24737,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3076575" y="0"/>
+          <a:off x="3071532" y="0"/>
           <a:ext cx="161925" cy="0"/>
           <a:chOff x="116" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -24767,7 +24854,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3771900" y="0"/>
+          <a:off x="3765176" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="94" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -24874,7 +24961,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2638425" y="0"/>
+          <a:off x="2633382" y="0"/>
           <a:ext cx="295275" cy="0"/>
           <a:chOff x="419" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -24981,7 +25068,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3076575" y="0"/>
+          <a:off x="3071532" y="0"/>
           <a:ext cx="161925" cy="0"/>
           <a:chOff x="508" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -25088,7 +25175,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3771900" y="0"/>
+          <a:off x="3765176" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="331" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -25195,7 +25282,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3771900" y="0"/>
+          <a:off x="3765176" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="419" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -25302,7 +25389,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3771900" y="0"/>
+          <a:off x="3765176" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="116" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -25419,7 +25506,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3771900" y="0"/>
+          <a:off x="3765176" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="419" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -25526,7 +25613,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3771900" y="0"/>
+          <a:off x="3765176" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="508" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -25633,7 +25720,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2638425" y="0"/>
+          <a:off x="2633382" y="0"/>
           <a:ext cx="295275" cy="0"/>
           <a:chOff x="419" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -25740,7 +25827,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3076575" y="0"/>
+          <a:off x="3071532" y="0"/>
           <a:ext cx="161925" cy="0"/>
           <a:chOff x="116" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -25857,7 +25944,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3771900" y="0"/>
+          <a:off x="3765176" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="94" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -25964,7 +26051,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2638425" y="0"/>
+          <a:off x="2633382" y="0"/>
           <a:ext cx="295275" cy="0"/>
           <a:chOff x="419" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -26071,7 +26158,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3076575" y="0"/>
+          <a:off x="3071532" y="0"/>
           <a:ext cx="161925" cy="0"/>
           <a:chOff x="508" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -26178,7 +26265,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3771900" y="0"/>
+          <a:off x="3765176" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="331" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -26285,7 +26372,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2638425" y="0"/>
+          <a:off x="2633382" y="0"/>
           <a:ext cx="295275" cy="0"/>
           <a:chOff x="419" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -26392,7 +26479,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3076575" y="0"/>
+          <a:off x="3071532" y="0"/>
           <a:ext cx="161925" cy="0"/>
           <a:chOff x="116" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -26509,7 +26596,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3771900" y="0"/>
+          <a:off x="3765176" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="94" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -26616,7 +26703,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2638425" y="0"/>
+          <a:off x="2633382" y="0"/>
           <a:ext cx="295275" cy="0"/>
           <a:chOff x="419" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -26723,7 +26810,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3076575" y="0"/>
+          <a:off x="3071532" y="0"/>
           <a:ext cx="161925" cy="0"/>
           <a:chOff x="508" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -26830,7 +26917,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3771900" y="0"/>
+          <a:off x="3765176" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="331" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -26937,7 +27024,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3771900" y="0"/>
+          <a:off x="3765176" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="419" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -27044,7 +27131,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3771900" y="0"/>
+          <a:off x="3765176" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="116" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -27161,7 +27248,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3771900" y="0"/>
+          <a:off x="3765176" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="419" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -27268,7 +27355,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3771900" y="0"/>
+          <a:off x="3765176" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="508" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -27375,7 +27462,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2638425" y="0"/>
+          <a:off x="2633382" y="0"/>
           <a:ext cx="295275" cy="0"/>
           <a:chOff x="419" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -27482,7 +27569,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3076575" y="0"/>
+          <a:off x="3071532" y="0"/>
           <a:ext cx="161925" cy="0"/>
           <a:chOff x="116" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -27599,7 +27686,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3771900" y="0"/>
+          <a:off x="3765176" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="94" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -27706,7 +27793,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2638425" y="0"/>
+          <a:off x="2633382" y="0"/>
           <a:ext cx="295275" cy="0"/>
           <a:chOff x="419" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -27813,7 +27900,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3076575" y="0"/>
+          <a:off x="3071532" y="0"/>
           <a:ext cx="161925" cy="0"/>
           <a:chOff x="508" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -27920,7 +28007,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3771900" y="0"/>
+          <a:off x="3765176" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="331" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -28027,7 +28114,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2638425" y="0"/>
+          <a:off x="2633382" y="0"/>
           <a:ext cx="295275" cy="0"/>
           <a:chOff x="419" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -28134,7 +28221,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3076575" y="0"/>
+          <a:off x="3071532" y="0"/>
           <a:ext cx="161925" cy="0"/>
           <a:chOff x="116" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -28251,7 +28338,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3771900" y="0"/>
+          <a:off x="3765176" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="94" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -28358,7 +28445,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2638425" y="0"/>
+          <a:off x="2633382" y="0"/>
           <a:ext cx="295275" cy="0"/>
           <a:chOff x="419" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -28465,7 +28552,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3076575" y="0"/>
+          <a:off x="3071532" y="0"/>
           <a:ext cx="161925" cy="0"/>
           <a:chOff x="508" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -28572,7 +28659,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3771900" y="0"/>
+          <a:off x="3765176" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="331" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -28679,7 +28766,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3771900" y="0"/>
+          <a:off x="3765176" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="419" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -28786,7 +28873,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3771900" y="0"/>
+          <a:off x="3765176" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="116" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -28903,7 +28990,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3771900" y="0"/>
+          <a:off x="3765176" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="419" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -29010,7 +29097,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3771900" y="0"/>
+          <a:off x="3765176" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="508" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -29117,7 +29204,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8724900" y="0"/>
+          <a:off x="8740588" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="94" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -29224,7 +29311,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8724900" y="0"/>
+          <a:off x="8740588" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="331" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -29331,7 +29418,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8724900" y="0"/>
+          <a:off x="8740588" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="94" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -29438,7 +29525,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8724900" y="0"/>
+          <a:off x="8740588" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="331" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -29545,7 +29632,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8724900" y="0"/>
+          <a:off x="8740588" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="419" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -29652,7 +29739,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8724900" y="0"/>
+          <a:off x="8740588" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="116" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -29769,7 +29856,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8724900" y="0"/>
+          <a:off x="8740588" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="419" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -29876,7 +29963,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8724900" y="0"/>
+          <a:off x="8740588" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="508" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -29983,7 +30070,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8724900" y="0"/>
+          <a:off x="8740588" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="94" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -30090,7 +30177,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8724900" y="0"/>
+          <a:off x="8740588" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="331" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -30197,7 +30284,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8724900" y="0"/>
+          <a:off x="8740588" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="94" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -30304,7 +30391,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8724900" y="0"/>
+          <a:off x="8740588" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="331" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -30411,7 +30498,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8724900" y="0"/>
+          <a:off x="8740588" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="419" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -30518,7 +30605,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8724900" y="0"/>
+          <a:off x="8740588" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="116" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -30635,7 +30722,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8724900" y="0"/>
+          <a:off x="8740588" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="419" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -30742,7 +30829,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8724900" y="0"/>
+          <a:off x="8740588" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="508" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -30849,7 +30936,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8724900" y="0"/>
+          <a:off x="8740588" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="94" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -30956,7 +31043,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8724900" y="0"/>
+          <a:off x="8740588" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="331" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -31063,7 +31150,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8724900" y="0"/>
+          <a:off x="8740588" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="94" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -31170,7 +31257,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8724900" y="0"/>
+          <a:off x="8740588" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="331" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -31277,7 +31364,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8724900" y="0"/>
+          <a:off x="8740588" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="419" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -31384,7 +31471,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8724900" y="0"/>
+          <a:off x="8740588" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="116" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -31501,7 +31588,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8724900" y="0"/>
+          <a:off x="8740588" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="419" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -31608,7 +31695,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8724900" y="0"/>
+          <a:off x="8740588" y="0"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="508" y="8"/>
           <a:chExt cx="73" cy="95"/>
@@ -31770,30 +31857,38 @@
     <sheetNames>
       <sheetName val="文件封面"/>
       <sheetName val="文件修改控制"/>
-      <sheetName val="封面"/>
-      <sheetName val="变更履历"/>
-      <sheetName val="目录"/>
-      <sheetName val="配置管理计划"/>
-      <sheetName val="配置库结构&amp;权限"/>
-      <sheetName val="资料管理"/>
-      <sheetName val="基准状态记录"/>
-      <sheetName val="变更请求记录"/>
-      <sheetName val="配置审计记录"/>
-      <sheetName val="需求与成果物对应关系表"/>
+      <sheetName val="Cover"/>
+      <sheetName val="Table"/>
+      <sheetName val="Data Definition"/>
+      <sheetName val="Project Status"/>
+      <sheetName val="Requirements Tracking"/>
+      <sheetName val="Size Tracking"/>
+      <sheetName val="Effort Tracking"/>
+      <sheetName val="Schedule Tracking"/>
+      <sheetName val="Defect Tracking"/>
+      <sheetName val="Review Tracking"/>
+      <sheetName val="Test Tracking"/>
+      <sheetName val="Critical Resource Tracking"/>
+      <sheetName val="Risk Tracking"/>
+      <sheetName val="Project DB"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10" refreshError="1"/>
       <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -31899,49 +31994,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="文件封面"/>
-      <sheetName val="文件修改控制"/>
-      <sheetName val="Cover"/>
-      <sheetName val="Table"/>
-      <sheetName val="Data Definition"/>
-      <sheetName val="Project Status"/>
-      <sheetName val="Requirements Tracking"/>
-      <sheetName val="Size Tracking"/>
-      <sheetName val="Effort Tracking"/>
-      <sheetName val="Schedule Tracking"/>
-      <sheetName val="Defect Tracking"/>
-      <sheetName val="Review Tracking"/>
-      <sheetName val="Test Tracking"/>
-      <sheetName val="Critical Resource Tracking"/>
-      <sheetName val="Risk Tracking"/>
-      <sheetName val="Project DB"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -32322,7 +32374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -32371,7 +32423,7 @@
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="18.75">
       <c r="A12" s="4"/>
-      <c r="C12" s="88"/>
+      <c r="C12" s="86"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="18.75">
       <c r="A13" s="4"/>
@@ -32388,17 +32440,17 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="141" t="s">
+      <c r="A15" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="18.75">
       <c r="A16" s="7"/>
@@ -32412,7 +32464,7 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="18.75">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="87" t="s">
         <v>90</v>
       </c>
       <c r="B17" s="6"/>
@@ -32425,7 +32477,7 @@
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="18.75">
-      <c r="A18" s="90">
+      <c r="A18" s="88">
         <v>40142</v>
       </c>
       <c r="B18" s="6"/>
@@ -32592,7 +32644,7 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:10" s="2" customFormat="1" ht="19.5">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="89" t="s">
         <v>91</v>
       </c>
       <c r="B33" s="6"/>
@@ -32603,10 +32655,10 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="92"/>
+      <c r="J33" s="90"/>
     </row>
     <row r="34" spans="1:10" s="2" customFormat="1" ht="19.5">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="91" t="s">
         <v>92</v>
       </c>
       <c r="B34" s="6"/>
@@ -32617,7 +32669,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="92"/>
+      <c r="J34" s="90"/>
     </row>
     <row r="35" spans="1:10" s="2" customFormat="1">
       <c r="A35" s="8"/>
@@ -32629,7 +32681,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="92"/>
+      <c r="J35" s="90"/>
     </row>
     <row r="36" spans="1:10" s="2" customFormat="1">
       <c r="A36" s="6"/>
@@ -32654,55 +32706,55 @@
       <c r="A59" s="11"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="94"/>
+      <c r="A101" s="92"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="94"/>
+      <c r="A102" s="92"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="94"/>
+      <c r="A103" s="92"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="94"/>
+      <c r="A104" s="92"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="94"/>
+      <c r="A105" s="92"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="94"/>
+      <c r="A106" s="92"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="94"/>
+      <c r="A107" s="92"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="94"/>
+      <c r="A108" s="92"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="94"/>
+      <c r="A109" s="92"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="94"/>
+      <c r="A110" s="92"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="94"/>
+      <c r="A111" s="92"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="94"/>
+      <c r="A112" s="92"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="94"/>
+      <c r="A113" s="92"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="94"/>
+      <c r="A114" s="92"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="94"/>
+      <c r="A115" s="92"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="94"/>
+      <c r="A116" s="92"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="94"/>
+      <c r="A117" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -32726,208 +32778,208 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="98" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="98" customWidth="1"/>
-    <col min="3" max="3" width="46.25" style="98" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="98" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="98"/>
+    <col min="1" max="1" width="12.625" style="96" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="96" customWidth="1"/>
+    <col min="3" max="3" width="46.25" style="96" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="96" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="96"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="97"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="A2" s="99"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="98" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="104" customFormat="1">
-      <c r="A4" s="101">
+    <row r="4" spans="1:5" s="102" customFormat="1">
+      <c r="A4" s="99">
         <v>1</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="103">
+      <c r="D4" s="101">
         <v>40142</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="104" customFormat="1">
-      <c r="A5" s="101"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="103"/>
+    <row r="5" spans="1:5" s="102" customFormat="1">
+      <c r="A5" s="99"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="101"/>
     </row>
-    <row r="6" spans="1:5" s="104" customFormat="1">
-      <c r="A6" s="101"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
+    <row r="6" spans="1:5" s="102" customFormat="1">
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
     </row>
-    <row r="7" spans="1:5" s="104" customFormat="1">
-      <c r="A7" s="101"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="103"/>
+    <row r="7" spans="1:5" s="102" customFormat="1">
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
     </row>
-    <row r="8" spans="1:5" s="104" customFormat="1">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="103"/>
+    <row r="8" spans="1:5" s="102" customFormat="1">
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="101"/>
     </row>
-    <row r="9" spans="1:5" s="104" customFormat="1">
-      <c r="A9" s="101"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103"/>
+    <row r="9" spans="1:5" s="102" customFormat="1">
+      <c r="A9" s="99"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="101"/>
     </row>
-    <row r="10" spans="1:5" s="104" customFormat="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
+    <row r="10" spans="1:5" s="102" customFormat="1">
+      <c r="A10" s="99"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="101"/>
     </row>
-    <row r="11" spans="1:5" s="104" customFormat="1">
-      <c r="A11" s="101"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="103"/>
+    <row r="11" spans="1:5" s="102" customFormat="1">
+      <c r="A11" s="99"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="101"/>
     </row>
-    <row r="12" spans="1:5" s="104" customFormat="1">
-      <c r="A12" s="101"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103"/>
+    <row r="12" spans="1:5" s="102" customFormat="1">
+      <c r="A12" s="99"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
     </row>
-    <row r="13" spans="1:5" s="104" customFormat="1">
-      <c r="A13" s="101"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="103"/>
+    <row r="13" spans="1:5" s="102" customFormat="1">
+      <c r="A13" s="99"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="101"/>
     </row>
-    <row r="14" spans="1:5" s="104" customFormat="1">
-      <c r="A14" s="101"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
+    <row r="14" spans="1:5" s="102" customFormat="1">
+      <c r="A14" s="99"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
     </row>
-    <row r="15" spans="1:5" s="104" customFormat="1">
-      <c r="A15" s="101"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="103"/>
+    <row r="15" spans="1:5" s="102" customFormat="1">
+      <c r="A15" s="99"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="101"/>
     </row>
-    <row r="16" spans="1:5" s="104" customFormat="1">
-      <c r="A16" s="101"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="103"/>
+    <row r="16" spans="1:5" s="102" customFormat="1">
+      <c r="A16" s="99"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="101"/>
     </row>
-    <row r="17" spans="1:4" s="104" customFormat="1">
-      <c r="A17" s="101"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="103"/>
+    <row r="17" spans="1:4" s="102" customFormat="1">
+      <c r="A17" s="99"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="101"/>
     </row>
-    <row r="18" spans="1:4" s="104" customFormat="1">
-      <c r="A18" s="101"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="103"/>
+    <row r="18" spans="1:4" s="102" customFormat="1">
+      <c r="A18" s="99"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="101"/>
     </row>
     <row r="19" spans="1:4" ht="15.75">
-      <c r="A19" s="101"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="103"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="101"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="101"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="103"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="101"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="101"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="103"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="101"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="110"/>
+      <c r="A95" s="108"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="110"/>
+      <c r="A96" s="108"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="110"/>
+      <c r="A97" s="108"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="110"/>
+      <c r="A98" s="108"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="110"/>
+      <c r="A99" s="108"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="110"/>
+      <c r="A100" s="108"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="110"/>
+      <c r="A101" s="108"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="110"/>
+      <c r="A102" s="108"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="110"/>
+      <c r="A103" s="108"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="110"/>
+      <c r="A104" s="108"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="110"/>
+      <c r="A105" s="108"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="110"/>
+      <c r="A106" s="108"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="110"/>
+      <c r="A107" s="108"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="110"/>
+      <c r="A108" s="108"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="110"/>
+      <c r="A109" s="108"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="110"/>
+      <c r="A110" s="108"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="110"/>
+      <c r="A111" s="108"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -32941,333 +32993,333 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A32" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="139" customWidth="1"/>
-    <col min="2" max="4" width="9.625" style="139" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="139" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="139" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="139" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="139" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="139"/>
+    <col min="1" max="1" width="9.25" style="137" customWidth="1"/>
+    <col min="2" max="4" width="9.625" style="137" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="137" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="137" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="137" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="137" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="137"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="112" customFormat="1" ht="22.5">
-      <c r="A1" s="111"/>
+    <row r="1" spans="1:9" s="110" customFormat="1" ht="22.5">
+      <c r="A1" s="109"/>
     </row>
-    <row r="2" spans="1:9" s="112" customFormat="1" ht="25.5" customHeight="1">
+    <row r="2" spans="1:9" s="110" customFormat="1" ht="25.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="115" customFormat="1" ht="22.5">
-      <c r="A3" s="113" t="s">
+    <row r="3" spans="1:9" s="113" customFormat="1" ht="22.5">
+      <c r="A3" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
     </row>
-    <row r="4" spans="1:9" s="112" customFormat="1" ht="18.75">
+    <row r="4" spans="1:9" s="110" customFormat="1" ht="18.75">
       <c r="A4" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="112" customFormat="1" ht="18.75">
-      <c r="A5" s="116"/>
+    <row r="5" spans="1:9" s="110" customFormat="1" ht="18.75">
+      <c r="A5" s="114"/>
     </row>
-    <row r="6" spans="1:9" s="112" customFormat="1" ht="18.75">
-      <c r="A6" s="116"/>
+    <row r="6" spans="1:9" s="110" customFormat="1" ht="18.75">
+      <c r="A6" s="114"/>
     </row>
-    <row r="7" spans="1:9" s="112" customFormat="1" ht="18.75">
-      <c r="A7" s="116"/>
+    <row r="7" spans="1:9" s="110" customFormat="1" ht="18.75">
+      <c r="A7" s="114"/>
     </row>
-    <row r="8" spans="1:9" s="112" customFormat="1" ht="18.75">
-      <c r="A8" s="116"/>
+    <row r="8" spans="1:9" s="110" customFormat="1" ht="18.75">
+      <c r="A8" s="114"/>
     </row>
-    <row r="9" spans="1:9" s="112" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A9" s="116"/>
+    <row r="9" spans="1:9" s="110" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A9" s="114"/>
     </row>
-    <row r="10" spans="1:9" s="112" customFormat="1" ht="18.75">
-      <c r="A10" s="116"/>
+    <row r="10" spans="1:9" s="110" customFormat="1" ht="18.75">
+      <c r="A10" s="114"/>
     </row>
-    <row r="11" spans="1:9" s="112" customFormat="1" ht="18.75">
-      <c r="A11" s="116"/>
+    <row r="11" spans="1:9" s="110" customFormat="1" ht="18.75">
+      <c r="A11" s="114"/>
     </row>
-    <row r="12" spans="1:9" s="112" customFormat="1" ht="18.75">
-      <c r="A12" s="116"/>
+    <row r="12" spans="1:9" s="110" customFormat="1" ht="18.75">
+      <c r="A12" s="114"/>
     </row>
-    <row r="13" spans="1:9" s="112" customFormat="1" ht="18.75">
-      <c r="A13" s="116"/>
+    <row r="13" spans="1:9" s="110" customFormat="1" ht="18.75">
+      <c r="A13" s="114"/>
     </row>
-    <row r="14" spans="1:9" s="112" customFormat="1" ht="18.75">
-      <c r="A14" s="116"/>
+    <row r="14" spans="1:9" s="110" customFormat="1" ht="18.75">
+      <c r="A14" s="114"/>
     </row>
-    <row r="15" spans="1:9" s="112" customFormat="1" ht="18.75">
-      <c r="A15" s="117"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
+    <row r="15" spans="1:9" s="110" customFormat="1" ht="18.75">
+      <c r="A15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
     </row>
-    <row r="16" spans="1:9" s="119" customFormat="1" ht="46.5">
-      <c r="A16" s="143" t="s">
+    <row r="16" spans="1:9" s="117" customFormat="1" ht="46.5">
+      <c r="A16" s="141" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="143"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
     </row>
-    <row r="17" spans="1:8" s="119" customFormat="1">
-      <c r="A17" s="120"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
+    <row r="17" spans="1:8" s="117" customFormat="1">
+      <c r="A17" s="118"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
     </row>
-    <row r="18" spans="1:8" s="112" customFormat="1" ht="53.25">
-      <c r="A18" s="123" t="s">
+    <row r="18" spans="1:8" s="110" customFormat="1" ht="53.25">
+      <c r="A18" s="121" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
     </row>
-    <row r="19" spans="1:8" s="112" customFormat="1" ht="18.75">
-      <c r="A19" s="117"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
+    <row r="19" spans="1:8" s="110" customFormat="1" ht="18.75">
+      <c r="A19" s="115"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
     </row>
-    <row r="20" spans="1:8" s="112" customFormat="1" ht="45.75">
-      <c r="A20" s="124"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
+    <row r="20" spans="1:8" s="110" customFormat="1" ht="45.75">
+      <c r="A20" s="122"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
     </row>
-    <row r="21" spans="1:8" s="112" customFormat="1" ht="18.75">
-      <c r="A21" s="90"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
+    <row r="21" spans="1:8" s="110" customFormat="1" ht="18.75">
+      <c r="A21" s="88"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
     </row>
-    <row r="22" spans="1:8" s="112" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A22" s="125" t="s">
+    <row r="22" spans="1:8" s="110" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A22" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="126"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
     </row>
-    <row r="23" spans="1:8" s="112" customFormat="1" ht="18.75">
-      <c r="A23" s="117"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
+    <row r="23" spans="1:8" s="110" customFormat="1" ht="18.75">
+      <c r="A23" s="115"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
     </row>
-    <row r="24" spans="1:8" s="112" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="117"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
+    <row r="24" spans="1:8" s="110" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="115"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
     </row>
-    <row r="25" spans="1:8" s="112" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="117"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118"/>
+    <row r="25" spans="1:8" s="110" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="115"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
     </row>
-    <row r="26" spans="1:8" s="112" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="117"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
+    <row r="26" spans="1:8" s="110" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="115"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
     </row>
-    <row r="27" spans="1:8" s="112" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="117"/>
-      <c r="B27" s="118"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="118"/>
+    <row r="27" spans="1:8" s="110" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="115"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
     </row>
-    <row r="28" spans="1:8" s="112" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="117"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="118"/>
+    <row r="28" spans="1:8" s="110" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="115"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
     </row>
-    <row r="29" spans="1:8" s="129" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A29" s="127" t="s">
+    <row r="29" spans="1:8" s="127" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A29" s="125" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="128"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
     </row>
-    <row r="30" spans="1:8" s="129" customFormat="1">
-      <c r="A30" s="130"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="131"/>
+    <row r="30" spans="1:8" s="127" customFormat="1">
+      <c r="A30" s="128"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
     </row>
-    <row r="31" spans="1:8" s="129" customFormat="1">
-      <c r="A31" s="130"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
+    <row r="31" spans="1:8" s="127" customFormat="1">
+      <c r="A31" s="128"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
     </row>
-    <row r="32" spans="1:8" s="129" customFormat="1">
-      <c r="A32" s="130"/>
-      <c r="B32" s="131"/>
-      <c r="C32" s="131"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="131"/>
+    <row r="32" spans="1:8" s="127" customFormat="1">
+      <c r="A32" s="128"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
     </row>
-    <row r="33" spans="1:8" s="135" customFormat="1" ht="30" customHeight="1">
-      <c r="A33" s="132" t="s">
+    <row r="33" spans="1:8" s="133" customFormat="1" ht="30" customHeight="1">
+      <c r="A33" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="133"/>
-      <c r="C33" s="132" t="s">
+      <c r="B33" s="131"/>
+      <c r="C33" s="130" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="133"/>
-      <c r="E33" s="132" t="s">
+      <c r="D33" s="131"/>
+      <c r="E33" s="130" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="133"/>
-      <c r="G33" s="134" t="s">
+      <c r="F33" s="131"/>
+      <c r="G33" s="132" t="s">
         <v>105</v>
       </c>
-      <c r="H33" s="133"/>
+      <c r="H33" s="131"/>
     </row>
-    <row r="34" spans="1:8" s="135" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A34" s="132" t="s">
+    <row r="34" spans="1:8" s="133" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A34" s="130" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="132" t="s">
+      <c r="B34" s="142"/>
+      <c r="C34" s="142"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
     </row>
-    <row r="35" spans="1:8" s="112" customFormat="1" ht="18.75">
-      <c r="A35" s="117"/>
-      <c r="B35" s="118"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
+    <row r="35" spans="1:8" s="110" customFormat="1" ht="18.75">
+      <c r="A35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
     </row>
-    <row r="36" spans="1:8" s="112" customFormat="1" ht="19.5">
-      <c r="A36" s="136"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="118"/>
+    <row r="36" spans="1:8" s="110" customFormat="1" ht="19.5">
+      <c r="A36" s="134"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
     </row>
-    <row r="37" spans="1:8" s="112" customFormat="1" ht="19.5">
-      <c r="A37" s="137"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
+    <row r="37" spans="1:8" s="110" customFormat="1" ht="19.5">
+      <c r="A37" s="135"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
     </row>
-    <row r="38" spans="1:8" s="112" customFormat="1"/>
+    <row r="38" spans="1:8" s="110" customFormat="1"/>
     <row r="55" spans="1:1">
-      <c r="A55" s="138"/>
+      <c r="A55" s="136"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="140"/>
+      <c r="A56" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -33290,8 +33342,8 @@
   </sheetPr>
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -33322,198 +33374,214 @@
       <c r="B3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
       <c r="E3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
+      <c r="F3" s="175" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="171"/>
       <c r="H3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="145"/>
-      <c r="J3" s="146"/>
+      <c r="I3" s="175" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="171"/>
       <c r="K3" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="65"/>
+      <c r="L3" s="176" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="150"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="67" t="s">
+      <c r="C4" s="173">
+        <v>42948</v>
+      </c>
+      <c r="D4" s="174"/>
+      <c r="E4" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="150"/>
-      <c r="G4" s="151"/>
+      <c r="F4" s="173">
+        <v>42958</v>
+      </c>
+      <c r="G4" s="174"/>
       <c r="H4" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
+      <c r="I4" s="172">
+        <v>0</v>
+      </c>
+      <c r="J4" s="172"/>
       <c r="K4" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="68"/>
+      <c r="L4" s="67">
+        <v>42955</v>
+      </c>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="73"/>
+      <c r="C5" s="177" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="171" t="s">
+      <c r="B6" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="172"/>
-      <c r="D6" s="74" t="s">
+      <c r="C6" s="148"/>
+      <c r="D6" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="G6" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="172" t="s">
+      <c r="J6" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="172"/>
-      <c r="L6" s="175"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="155"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="149"/>
-      <c r="L7" s="168"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="154"/>
+      <c r="L7" s="158"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="148"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="149"/>
-      <c r="L8" s="168"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="158"/>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="148"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="149"/>
-      <c r="L9" s="168"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="154"/>
+      <c r="L9" s="158"/>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="148"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="149"/>
-      <c r="L10" s="168"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="158"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="148"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="149"/>
-      <c r="L11" s="168"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="158"/>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="148"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="149"/>
-      <c r="L12" s="168"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="158"/>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="79"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="77"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="156"/>
-      <c r="C14" s="157"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="157"/>
-      <c r="K14" s="157"/>
-      <c r="L14" s="158"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="162"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="163"/>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="165" t="s">
+      <c r="B15" s="170" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="36" t="s">
@@ -33534,202 +33602,202 @@
       <c r="H15" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="161" t="s">
+      <c r="I15" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="162"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="163"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="167"/>
+      <c r="L15" s="168"/>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="165"/>
+      <c r="B16" s="170"/>
       <c r="C16" s="57"/>
       <c r="D16" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="158"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="162"/>
+      <c r="K16" s="162"/>
+      <c r="L16" s="163"/>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="165"/>
+      <c r="B17" s="170"/>
       <c r="C17" s="36" t="s">
         <v>52</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="157"/>
-      <c r="L17" s="158"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="163"/>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="165"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="84" t="s">
+      <c r="B18" s="170"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="81"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="79"/>
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="165"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="84" t="s">
+      <c r="B19" s="170"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="81"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="79"/>
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="165"/>
+      <c r="B20" s="170"/>
       <c r="C20" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="84" t="s">
+      <c r="D20" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="81"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="79"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="165"/>
+      <c r="B21" s="170"/>
       <c r="C21" s="58"/>
-      <c r="D21" s="84" t="s">
+      <c r="D21" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="157"/>
-      <c r="L21" s="158"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="162"/>
+      <c r="L21" s="163"/>
     </row>
     <row r="22" spans="2:12" ht="39.950000000000003" customHeight="1">
       <c r="B22" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="159"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="159"/>
-      <c r="K22" s="159"/>
-      <c r="L22" s="160"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="165"/>
     </row>
     <row r="23" spans="2:12" ht="39.950000000000003" customHeight="1">
       <c r="B23" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="153"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="149"/>
+      <c r="K23" s="149"/>
+      <c r="L23" s="150"/>
     </row>
     <row r="24" spans="2:12" ht="39.950000000000003" customHeight="1">
       <c r="B24" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="152"/>
-      <c r="L24" s="153"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="149"/>
+      <c r="K24" s="149"/>
+      <c r="L24" s="150"/>
     </row>
     <row r="25" spans="2:12" ht="39.950000000000003" customHeight="1">
       <c r="B25" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="152"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="152"/>
-      <c r="K25" s="152"/>
-      <c r="L25" s="153"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="150"/>
     </row>
     <row r="26" spans="2:12" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="B26" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="173"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="173"/>
-      <c r="K26" s="173"/>
-      <c r="L26" s="174"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="152"/>
     </row>
     <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" thickTop="1">
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="79"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="77"/>
     </row>
     <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="154" t="s">
+      <c r="B28" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="155"/>
+      <c r="C28" s="160"/>
       <c r="D28" s="36" t="s">
         <v>14</v>
       </c>
@@ -33749,8 +33817,8 @@
       <c r="L28" s="40"/>
     </row>
     <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="169"/>
-      <c r="C29" s="170"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="144"/>
       <c r="D29" s="37"/>
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
@@ -33762,8 +33830,8 @@
       <c r="L29" s="41"/>
     </row>
     <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="169"/>
-      <c r="C30" s="170"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="144"/>
       <c r="D30" s="37"/>
       <c r="E30" s="38"/>
       <c r="F30" s="38"/>
@@ -33775,8 +33843,8 @@
       <c r="L30" s="41"/>
     </row>
     <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="169"/>
-      <c r="C31" s="170"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="144"/>
       <c r="D31" s="37"/>
       <c r="E31" s="38"/>
       <c r="F31" s="38"/>
@@ -33788,8 +33856,8 @@
       <c r="L31" s="41"/>
     </row>
     <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="169"/>
-      <c r="C32" s="170"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="144"/>
       <c r="D32" s="37"/>
       <c r="E32" s="38"/>
       <c r="F32" s="38"/>
@@ -33801,8 +33869,8 @@
       <c r="L32" s="41"/>
     </row>
     <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
@@ -33814,8 +33882,8 @@
       <c r="L33" s="41"/>
     </row>
     <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="86"/>
-      <c r="C34" s="87"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="37"/>
       <c r="E34" s="38"/>
       <c r="F34" s="38"/>
@@ -33827,8 +33895,8 @@
       <c r="L34" s="41"/>
     </row>
     <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="86"/>
-      <c r="C35" s="87"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="37"/>
       <c r="E35" s="38"/>
       <c r="F35" s="38"/>
@@ -33840,8 +33908,8 @@
       <c r="L35" s="41"/>
     </row>
     <row r="36" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="86"/>
-      <c r="C36" s="87"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="85"/>
       <c r="D36" s="37"/>
       <c r="E36" s="38"/>
       <c r="F36" s="38"/>
@@ -33853,8 +33921,8 @@
       <c r="L36" s="41"/>
     </row>
     <row r="37" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B37" s="86"/>
-      <c r="C37" s="87"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="85"/>
       <c r="D37" s="37"/>
       <c r="E37" s="38"/>
       <c r="F37" s="38"/>
@@ -33866,8 +33934,8 @@
       <c r="L37" s="41"/>
     </row>
     <row r="38" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B38" s="86"/>
-      <c r="C38" s="87"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="85"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
       <c r="F38" s="38"/>
@@ -33879,8 +33947,8 @@
       <c r="L38" s="41"/>
     </row>
     <row r="39" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="169"/>
-      <c r="C39" s="170"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="144"/>
       <c r="D39" s="37"/>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
@@ -33892,8 +33960,8 @@
       <c r="L39" s="41"/>
     </row>
     <row r="40" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B40" s="169"/>
-      <c r="C40" s="170"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="144"/>
       <c r="D40" s="37"/>
       <c r="E40" s="38"/>
       <c r="F40" s="38"/>
@@ -33905,8 +33973,8 @@
       <c r="L40" s="41"/>
     </row>
     <row r="41" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B41" s="169"/>
-      <c r="C41" s="170"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="144"/>
       <c r="D41" s="37"/>
       <c r="E41" s="38"/>
       <c r="F41" s="38"/>
@@ -33918,8 +33986,8 @@
       <c r="L41" s="41"/>
     </row>
     <row r="42" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B42" s="169"/>
-      <c r="C42" s="170"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="144"/>
       <c r="D42" s="37"/>
       <c r="E42" s="38"/>
       <c r="F42" s="38"/>
@@ -33931,8 +33999,8 @@
       <c r="L42" s="41"/>
     </row>
     <row r="43" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="169"/>
-      <c r="C43" s="170"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="144"/>
       <c r="D43" s="37"/>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
@@ -33944,8 +34012,8 @@
       <c r="L43" s="41"/>
     </row>
     <row r="44" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B44" s="176"/>
-      <c r="C44" s="177"/>
+      <c r="B44" s="145"/>
+      <c r="C44" s="146"/>
       <c r="D44" s="42"/>
       <c r="E44" s="43"/>
       <c r="F44" s="43"/>
@@ -33958,13 +34026,26 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="C23:L23"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="B15:B21"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
@@ -33981,26 +34062,13 @@
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="C22:L22"/>
-    <mergeCell ref="C23:L23"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
